--- a/data/Електричних_машин-Форма 44 ВІД ДОРУЧЕНЬ- 2020_кафЕМ_ден2 сем.xlsx
+++ b/data/Електричних_машин-Форма 44 ВІД ДОРУЧЕНЬ- 2020_кафЕМ_ден2 сем.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9630"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$52</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -285,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,21 +842,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" style="1" customWidth="1"/>
@@ -869,7 +869,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -891,8 +891,8 @@
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1"/>
-    <row r="4" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
@@ -905,7 +905,7 @@
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
     </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1">
+    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -916,7 +916,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="25.5">
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1">
+    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -940,7 +940,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>19</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1">
+    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -964,7 +964,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>60</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="29" t="s">
         <v>23</v>
@@ -990,7 +990,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75">
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1001,7 +1001,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="73.5" customHeight="1">
+    <row r="13" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="37.5" customHeight="1">
+    <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="39.75" customHeight="1">
+    <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>24</v>
@@ -1115,7 +1115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="66" customHeight="1">
+    <row r="17" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="58.5" customHeight="1">
+    <row r="18" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="46.5" customHeight="1">
+    <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>3</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="50.25" customHeight="1">
+    <row r="20" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>37</v>
@@ -1227,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="69" customHeight="1">
+    <row r="21" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>4</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="70.5" customHeight="1">
+    <row r="22" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>26</v>
@@ -1283,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>5</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="38.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
@@ -1339,7 +1339,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="38.25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="20" t="s">
         <v>27</v>
@@ -1366,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="36" customHeight="1">
+    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>6</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="39" customHeight="1">
+    <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>28</v>
@@ -1422,7 +1422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1">
+    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>28</v>
@@ -1449,7 +1449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>7</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>29</v>
@@ -1505,7 +1505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>8</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>30</v>
@@ -1561,7 +1561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="38.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>9</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="32.25" customHeight="1">
+    <row r="34" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="19" t="s">
         <v>31</v>
@@ -1617,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45">
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>10</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45">
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="19" t="s">
         <v>52</v>
@@ -1673,7 +1673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="45">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="19" t="s">
         <v>52</v>
@@ -1700,7 +1700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="33" customHeight="1">
+    <row r="38" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>11</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="38.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="19" t="s">
         <v>32</v>
@@ -1756,7 +1756,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="38.25">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>12</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33" customHeight="1">
+    <row r="41" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="19" t="s">
         <v>33</v>
@@ -1812,7 +1812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>13</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="19" t="s">
         <v>27</v>
@@ -1868,7 +1868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="45.75" customHeight="1">
+    <row r="44" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>14</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="44.25" customHeight="1">
+    <row r="45" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="19" t="s">
         <v>57</v>
@@ -1924,7 +1924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="19"/>
       <c r="C46" s="23"/>
@@ -1935,10 +1935,10 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" ht="18.75">
+    <row r="48" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>3</v>
       </c>
@@ -1948,14 +1948,14 @@
       </c>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" spans="1:9" ht="12.95" customHeight="1">
+    <row r="49" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="H49" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I49" s="32"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>13</v>
       </c>

--- a/data/Електричних_машин-Форма 44 ВІД ДОРУЧЕНЬ- 2020_кафЕМ_ден2 сем.xlsx
+++ b/data/Електричних_машин-Форма 44 ВІД ДОРУЧЕНЬ- 2020_кафЕМ_ден2 сем.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12375"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$52</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="62">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -422,7 +422,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,6 +548,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,6 +583,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,48 +888,50 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -915,21 +941,23 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -938,22 +966,24 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -962,35 +992,38 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -999,9 +1032,10 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="25"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1063,11 @@
       <c r="I13" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1058,8 +1095,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -1087,8 +1127,9 @@
       <c r="I15" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>24</v>
@@ -1114,8 +1155,9 @@
       <c r="I16" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -1143,8 +1185,9 @@
       <c r="I17" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>25</v>
@@ -1170,8 +1213,9 @@
       <c r="I18" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>3</v>
       </c>
@@ -1199,8 +1243,9 @@
       <c r="I19" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>37</v>
@@ -1226,8 +1271,9 @@
       <c r="I20" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>4</v>
       </c>
@@ -1255,8 +1301,9 @@
       <c r="I21" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>26</v>
@@ -1282,8 +1329,9 @@
       <c r="I22" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>5</v>
       </c>
@@ -1311,8 +1359,9 @@
       <c r="I23" s="15">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
         <v>27</v>
@@ -1338,8 +1387,9 @@
       <c r="I24" s="15">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="20" t="s">
         <v>27</v>
@@ -1365,8 +1415,9 @@
       <c r="I25" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>6</v>
       </c>
@@ -1394,8 +1445,9 @@
       <c r="I26" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>28</v>
@@ -1421,8 +1473,9 @@
       <c r="I27" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="38"/>
+    </row>
+    <row r="28" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>28</v>
@@ -1448,8 +1501,9 @@
       <c r="I28" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>7</v>
       </c>
@@ -1477,8 +1531,9 @@
       <c r="I29" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>29</v>
@@ -1504,8 +1559,9 @@
       <c r="I30" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>8</v>
       </c>
@@ -1533,8 +1589,9 @@
       <c r="I31" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>30</v>
@@ -1560,8 +1617,9 @@
       <c r="I32" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>9</v>
       </c>
@@ -1589,8 +1647,9 @@
       <c r="I33" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="19" t="s">
         <v>31</v>
@@ -1616,8 +1675,9 @@
       <c r="I34" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>10</v>
       </c>
@@ -1645,8 +1705,9 @@
       <c r="I35" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J35" s="38"/>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="19" t="s">
         <v>52</v>
@@ -1672,8 +1733,9 @@
       <c r="I36" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J36" s="38"/>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="19" t="s">
         <v>52</v>
@@ -1699,8 +1761,9 @@
       <c r="I37" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>11</v>
       </c>
@@ -1728,8 +1791,9 @@
       <c r="I38" s="15">
         <v>240</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="19" t="s">
         <v>32</v>
@@ -1755,8 +1819,9 @@
       <c r="I39" s="15">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>12</v>
       </c>
@@ -1784,8 +1849,9 @@
       <c r="I40" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="19" t="s">
         <v>33</v>
@@ -1811,8 +1877,9 @@
       <c r="I41" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J41" s="38"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>13</v>
       </c>
@@ -1840,8 +1907,9 @@
       <c r="I42" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="19" t="s">
         <v>27</v>
@@ -1867,8 +1935,9 @@
       <c r="I43" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>14</v>
       </c>
@@ -1896,9 +1965,10 @@
       <c r="I44" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="J44" s="38"/>
+    </row>
+    <row r="45" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
       <c r="B45" s="19" t="s">
         <v>57</v>
       </c>
@@ -1923,8 +1993,9 @@
       <c r="I45" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="38"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="19"/>
       <c r="C46" s="23"/>
@@ -1934,65 +2005,70 @@
       <c r="G46" s="16"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A51:J51"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>

--- a/data/Електричних_машин-Форма 44 ВІД ДОРУЧЕНЬ- 2020_кафЕМ_ден2 сем.xlsx
+++ b/data/Електричних_машин-Форма 44 ВІД ДОРУЧЕНЬ- 2020_кафЕМ_ден2 сем.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Е-217;Е-218сп;Е-228сп;Е-238сп</t>
+  </si>
+  <si>
+    <t>Пропозиції щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -557,6 +560,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -583,15 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,7 +880,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,33 +906,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -944,18 +947,18 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -970,18 +973,18 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -996,32 +999,32 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1061,9 +1064,9 @@
         <v>14</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1095,7 +1098,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="28">
         <v>10</v>
       </c>
     </row>
@@ -1127,7 +1130,7 @@
       <c r="I15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
@@ -1155,7 +1158,7 @@
       <c r="I16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -1185,7 +1188,7 @@
       <c r="I17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
@@ -1213,7 +1216,7 @@
       <c r="I18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="38"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -1243,7 +1246,7 @@
       <c r="I19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -1271,7 +1274,7 @@
       <c r="I20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="38"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -1301,7 +1304,7 @@
       <c r="I21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="38"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -1329,7 +1332,7 @@
       <c r="I22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="38"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -1359,7 +1362,7 @@
       <c r="I23" s="15">
         <v>240</v>
       </c>
-      <c r="J23" s="38"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
@@ -1387,7 +1390,7 @@
       <c r="I24" s="15">
         <v>240</v>
       </c>
-      <c r="J24" s="38"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1415,7 +1418,7 @@
       <c r="I25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="38"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -1445,7 +1448,7 @@
       <c r="I26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="38"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
@@ -1473,7 +1476,7 @@
       <c r="I27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
@@ -1501,7 +1504,7 @@
       <c r="I28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="38"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -1531,7 +1534,7 @@
       <c r="I29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="38"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
@@ -1559,7 +1562,7 @@
       <c r="I30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -1589,7 +1592,7 @@
       <c r="I31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="38"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
@@ -1617,7 +1620,7 @@
       <c r="I32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="38"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -1647,7 +1650,7 @@
       <c r="I33" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="38"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
@@ -1675,7 +1678,7 @@
       <c r="I34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="38"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -1705,7 +1708,7 @@
       <c r="I35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="38"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
@@ -1733,7 +1736,7 @@
       <c r="I36" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="38"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
@@ -1761,7 +1764,7 @@
       <c r="I37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J37" s="38"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
@@ -1791,7 +1794,7 @@
       <c r="I38" s="15">
         <v>240</v>
       </c>
-      <c r="J38" s="38"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
@@ -1819,7 +1822,7 @@
       <c r="I39" s="15">
         <v>228</v>
       </c>
-      <c r="J39" s="38"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -1849,7 +1852,7 @@
       <c r="I40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J40" s="38"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
@@ -1877,7 +1880,7 @@
       <c r="I41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="38"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
@@ -1907,7 +1910,7 @@
       <c r="I42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J42" s="38"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
@@ -1935,7 +1938,7 @@
       <c r="I43" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="38"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
@@ -1965,7 +1968,7 @@
       <c r="I44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="38"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
@@ -1993,7 +1996,7 @@
       <c r="I45" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="38"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
@@ -2015,47 +2018,47 @@
         <v>3</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
     </row>
     <row r="49" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
-      <c r="H49" s="35" t="s">
+      <c r="H49" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
